--- a/Fama Mac-Beth Results/Results.xlsx
+++ b/Fama Mac-Beth Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Escritorio\Memoria\Memoria_LA\Fama Mac-Beth Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E94CEE-CBA7-4404-A485-39185E210E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DADDA3-631F-4A41-BF37-42EDE71F75F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,10 +150,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65:G65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,31 +511,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -650,31 +650,31 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="I11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -789,31 +789,31 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="I20" s="3" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="I20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
@@ -928,31 +928,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="E29" s="3" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="E29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="I29" s="3" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="I29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="3"/>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
@@ -1067,31 +1067,31 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="E38" s="3" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="E38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="I38" s="3" t="s">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="I38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="3"/>
+      <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
@@ -1206,31 +1206,31 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="E47" s="3" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="E47" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="I47" s="3" t="s">
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="I47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="3"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
@@ -1345,31 +1345,31 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="E56" s="3" t="s">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="E56" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="I56" s="3" t="s">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="I56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J56" s="3"/>
+      <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
@@ -1484,31 +1484,31 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="E65" s="3" t="s">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="E65" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="I65" s="3" t="s">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="I65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J65" s="3"/>
+      <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
@@ -1624,6 +1624,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="I38:J38"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="E65:G65"/>
@@ -1632,37 +1656,13 @@
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="E56:G56"/>
     <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B6 F4:F6 B13:B15 F13:F15 B22:B24 F22:F24 B31:B33 F31:F33 J36 B40:B42 F40:F42 B49:B51 F49:F51">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17 B8 B26 B35 B44 B53">
+  <conditionalFormatting sqref="B8 B17 B26 B35 B44 B53">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1691,7 +1691,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8 E17 E26 E35 E44 E53">
+  <conditionalFormatting sqref="B67:B69 F67:F69">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17 E8 E26 E35 E44 E53">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1705,23 +1722,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
     <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B69 F67:F69">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1752,38 +1752,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CBF744-D692-41E5-BADD-7A66A74B6914}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:G20"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -1898,31 +1898,31 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="I11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -2037,31 +2037,31 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="I20" s="3" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="I20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
@@ -2191,7 +2191,7 @@
     <mergeCell ref="I11:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B6 F4:G6">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2208,7 +2208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B15 F13:F15 G14:G15">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2225,7 +2225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24 F22:F24">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Fama Mac-Beth Results/Results.xlsx
+++ b/Fama Mac-Beth Results/Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Escritorio\Memoria\Memoria_LA\Fama Mac-Beth Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DADDA3-631F-4A41-BF37-42EDE71F75F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E924891-2253-4E10-B61C-71D6EBF3F4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,8 +98,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -146,10 +147,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:J71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,31 +514,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -633,13 +636,13 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>0.41470000000000001</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>0.28610000000000002</v>
       </c>
       <c r="F8" t="s">
@@ -650,31 +653,31 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="I11" s="4" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="I11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -772,13 +775,13 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>-0.31090000000000001</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>9.8199999999999996E-2</v>
       </c>
       <c r="F17" t="s">
@@ -789,31 +792,31 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
@@ -894,7 +897,7 @@
       <c r="B24">
         <v>-2.07E-2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>-0.80200000000000005</v>
       </c>
       <c r="E24" t="s">
@@ -911,48 +914,48 @@
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>0.49430000000000002</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>0.1186</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="3">
         <v>0.29380000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="E29" s="4" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="E29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="I29" s="4" t="s">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="I29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
@@ -1050,13 +1053,13 @@
       <c r="A35" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>0.3377</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <v>0.34620000000000001</v>
       </c>
       <c r="F35" t="s">
@@ -1067,31 +1070,31 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="E38" s="4" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="E38" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="I38" s="4" t="s">
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="I38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="4"/>
+      <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
@@ -1189,13 +1192,13 @@
       <c r="A44" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>0.60389999999999999</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="3">
         <v>0.22869999999999999</v>
       </c>
       <c r="F44" t="s">
@@ -1206,31 +1209,31 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="E47" s="4" t="s">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="E47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="I47" s="4" t="s">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="I47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="4"/>
+      <c r="J47" s="6"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
@@ -1328,13 +1331,13 @@
       <c r="A53" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="3">
         <v>0.90180000000000005</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="3">
         <v>0.32829999999999998</v>
       </c>
       <c r="F53" t="s">
@@ -1345,31 +1348,31 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="E56" s="4" t="s">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="E56" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="I56" s="4" t="s">
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="I56" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J56" s="4"/>
+      <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
@@ -1421,7 +1424,7 @@
       <c r="A59" t="s">
         <v>2</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C59">
@@ -1467,13 +1470,13 @@
       <c r="A62" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="3">
         <v>0.5353</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="3">
         <v>0.1895</v>
       </c>
       <c r="F62" t="s">
@@ -1484,31 +1487,31 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="E65" s="4" t="s">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="E65" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="I65" s="4" t="s">
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="I65" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J65" s="4"/>
+      <c r="J65" s="6"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
@@ -1606,7 +1609,7 @@
       <c r="A71" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="4">
         <v>0.44579999999999997</v>
       </c>
       <c r="D71" t="s">
@@ -1618,7 +1621,7 @@
       <c r="F71" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="3">
         <v>0.33379999999999999</v>
       </c>
     </row>
@@ -1759,31 +1762,31 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -1898,31 +1901,31 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="I11" s="4" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="I11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -2037,31 +2040,31 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
